--- a/data/je-f-17.03.01.02.xlsx
+++ b/data/je-f-17.03.01.02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projekte\Public\_DB_Asset_diffusion\B17\17_01 Abstimmungen\2018\GNP2018-0191_März 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\00_BFS_ALLE\Austausch DAM DIAM\B17\17_01 Abstimmungen\2018\GNP2018-0206_Juni 2018\Lexikontabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5688" yWindow="1320" windowWidth="8460" windowHeight="6180"/>
+    <workbookView xWindow="5685" yWindow="1320" windowWidth="8460" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="2010-2018" sheetId="18" r:id="rId1"/>
@@ -26,14 +26,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1980-1989'!$A$1:$P$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1990-1999'!$A$1:$P$123</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2000-2009'!$A$1:$P$113</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2010-2018'!$A$1:$P$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2010-2018'!$A$1:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="821">
   <si>
     <t>Initiative populaire «pour des aliments produits sans manipulations génétiques»</t>
   </si>
@@ -2471,9 +2471,6 @@
     <t>Les votations populaires fédérales de 2010 à 2018, résultats détaillés</t>
   </si>
   <si>
-    <t>Modifié le: 4.3.2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arrêté fédéral concernant le nouveau régime financier 2021 </t>
   </si>
   <si>
@@ -2484,6 +2481,21 @@
   </si>
   <si>
     <t>617p</t>
+  </si>
+  <si>
+    <t>618 p</t>
+  </si>
+  <si>
+    <t>Initiative populaire «Pour une monnaie à l’abri des crises: émission monétaire uniquement par la Banque nationale! (Initiative Monnaie pleine»</t>
+  </si>
+  <si>
+    <t>619 p</t>
+  </si>
+  <si>
+    <t>Loi fédérale sur les jeux d'argent</t>
+  </si>
+  <si>
+    <t>Modifié le: 10.6.2018</t>
   </si>
 </sst>
 </file>
@@ -3087,7 +3099,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard_Tabelle1" xfId="2"/>
     <cellStyle name="Standard_Tabelle3" xfId="3"/>
@@ -3106,7 +3118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3395,39 +3407,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="120" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="120" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="120" customWidth="1"/>
     <col min="3" max="3" width="47" style="120" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="120" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="120" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="120" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="120" customWidth="1"/>
     <col min="7" max="7" width="10" style="120" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="120" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="120" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="120" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="120" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="120" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="120" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="120" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="120" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="120" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="120" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="120" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="120" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="120" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="120" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="120" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="120" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="120" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="120" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="120" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="120" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="120" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.375" style="120"/>
-    <col min="21" max="29" width="11.625" style="120" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.375" style="120"/>
+    <col min="19" max="20" width="11.42578125" style="120"/>
+    <col min="21" max="29" width="11.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.42578125" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>811</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -3456,7 +3468,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
       <c r="C3" s="7"/>
       <c r="E3" s="8"/>
@@ -3471,7 +3483,7 @@
       <c r="N3" s="92"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -3521,7 +3533,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>422</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
@@ -3574,7 +3586,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -3592,7 +3604,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>548</v>
       </c>
@@ -3642,7 +3654,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="104">
         <v>549</v>
       </c>
@@ -3692,7 +3704,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>550</v>
       </c>
@@ -3742,7 +3754,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="104">
         <v>551</v>
       </c>
@@ -3792,7 +3804,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>785</v>
       </c>
@@ -3843,7 +3855,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="104" t="s">
         <v>786</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="65">
         <v>553</v>
       </c>
@@ -3944,7 +3956,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="104">
         <v>554</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>555</v>
       </c>
@@ -4044,7 +4056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="104">
         <v>556</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>557</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="104">
         <v>558</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>559</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="121">
         <v>560</v>
       </c>
@@ -4294,7 +4306,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>561</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="121">
         <v>562</v>
       </c>
@@ -4394,7 +4406,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>563</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="121">
         <v>564</v>
       </c>
@@ -4494,7 +4506,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>565</v>
       </c>
@@ -4544,7 +4556,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="121">
         <v>566</v>
       </c>
@@ -4594,7 +4606,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>615</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="121">
         <v>568</v>
       </c>
@@ -4694,7 +4706,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>569</v>
       </c>
@@ -4744,7 +4756,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="121">
         <v>570</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
         <v>571</v>
       </c>
@@ -4844,7 +4856,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="121">
         <v>572</v>
       </c>
@@ -4894,7 +4906,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="65">
         <v>573</v>
       </c>
@@ -4944,7 +4956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="121">
         <v>574</v>
       </c>
@@ -4994,7 +5006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>575</v>
       </c>
@@ -5044,7 +5056,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="121">
         <v>576</v>
       </c>
@@ -5094,7 +5106,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>577</v>
       </c>
@@ -5144,7 +5156,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="121">
         <v>578</v>
       </c>
@@ -5194,7 +5206,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="137">
         <v>579</v>
       </c>
@@ -5244,7 +5256,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="121">
         <v>580</v>
       </c>
@@ -5294,7 +5306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="137">
         <v>581</v>
       </c>
@@ -5344,7 +5356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="121">
         <v>582</v>
       </c>
@@ -5394,7 +5406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="137">
         <v>583</v>
       </c>
@@ -5444,7 +5456,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A45" s="121">
         <v>584</v>
       </c>
@@ -5494,7 +5506,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A46" s="137">
         <v>585</v>
       </c>
@@ -5544,7 +5556,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A47" s="121">
         <v>586</v>
       </c>
@@ -5594,7 +5606,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="137">
         <v>587</v>
       </c>
@@ -5644,7 +5656,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="139">
         <v>588</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="137">
         <v>589</v>
       </c>
@@ -5744,7 +5756,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="139">
         <v>590</v>
       </c>
@@ -5794,7 +5806,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="137">
         <v>591</v>
       </c>
@@ -5844,7 +5856,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="139">
         <v>592</v>
       </c>
@@ -5894,7 +5906,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A54" s="137">
         <v>593</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="139">
         <v>594</v>
       </c>
@@ -5994,7 +6006,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A56" s="137">
         <v>595</v>
       </c>
@@ -6044,7 +6056,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="139" t="s">
         <v>798</v>
       </c>
@@ -6094,7 +6106,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="137">
         <v>597</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A59" s="139">
         <v>598</v>
       </c>
@@ -6194,7 +6206,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="137">
         <v>599</v>
       </c>
@@ -6244,7 +6256,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A61" s="139">
         <v>600</v>
       </c>
@@ -6294,7 +6306,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A62" s="137">
         <v>601</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A63" s="139">
         <v>602</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A64" s="137">
         <v>603</v>
       </c>
@@ -6444,7 +6456,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A65" s="139">
         <v>604</v>
       </c>
@@ -6494,7 +6506,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="137">
         <v>605</v>
       </c>
@@ -6544,7 +6556,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A67" s="139">
         <v>606</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A68" s="137">
         <v>607</v>
       </c>
@@ -6644,7 +6656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A69" s="139">
         <v>608</v>
       </c>
@@ -6694,7 +6706,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="137">
         <v>609</v>
       </c>
@@ -6744,7 +6756,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="139">
         <v>610</v>
       </c>
@@ -6794,7 +6806,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="137">
         <v>611</v>
       </c>
@@ -6844,7 +6856,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A73" s="139">
         <v>612</v>
       </c>
@@ -6894,7 +6906,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A74" s="137">
         <v>613</v>
       </c>
@@ -6944,7 +6956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="139">
         <v>614</v>
       </c>
@@ -6994,7 +7006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A76" s="137">
         <v>615</v>
       </c>
@@ -7044,161 +7056,223 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="137" t="s">
+    <row r="77" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="139" t="s">
+        <v>814</v>
+      </c>
+      <c r="B77" s="140">
+        <v>43163</v>
+      </c>
+      <c r="C77" s="124" t="s">
+        <v>812</v>
+      </c>
+      <c r="D77" s="125" t="s">
+        <v>365</v>
+      </c>
+      <c r="E77" s="126">
+        <v>5391413</v>
+      </c>
+      <c r="F77" s="126"/>
+      <c r="G77" s="127">
+        <v>53.6</v>
+      </c>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126">
+        <v>2803332</v>
+      </c>
+      <c r="K77" s="126">
+        <v>2357915</v>
+      </c>
+      <c r="L77" s="126">
+        <v>445417</v>
+      </c>
+      <c r="M77" s="146">
+        <v>84.1</v>
+      </c>
+      <c r="N77" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="O77" s="129" t="s">
+        <v>335</v>
+      </c>
+      <c r="P77" s="129" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="137" t="s">
         <v>815</v>
       </c>
-      <c r="B77" s="138">
+      <c r="B78" s="138">
         <v>43163</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C78" s="76" t="s">
         <v>813</v>
       </c>
-      <c r="D77" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="E77" s="130">
+      <c r="D78" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="E78" s="130">
         <v>5391413</v>
       </c>
-      <c r="F77" s="130"/>
-      <c r="G77" s="131">
-        <v>53.6</v>
-      </c>
-      <c r="H77" s="130"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130">
-        <v>2803332</v>
-      </c>
-      <c r="K77" s="130">
-        <v>2357915</v>
-      </c>
-      <c r="L77" s="130">
-        <v>445417</v>
-      </c>
-      <c r="M77" s="131">
-        <v>84.1</v>
-      </c>
-      <c r="N77" s="132" t="s">
+      <c r="F78" s="130"/>
+      <c r="G78" s="131">
+        <v>54.8</v>
+      </c>
+      <c r="H78" s="130"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="130">
+        <v>2931769</v>
+      </c>
+      <c r="K78" s="130">
+        <v>833630</v>
+      </c>
+      <c r="L78" s="130">
+        <v>2098139</v>
+      </c>
+      <c r="M78" s="131">
+        <v>28.4</v>
+      </c>
+      <c r="N78" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="O78" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="P78" s="133" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="139" t="s">
+        <v>816</v>
+      </c>
+      <c r="B79" s="140">
+        <v>43261</v>
+      </c>
+      <c r="C79" s="124" t="s">
+        <v>817</v>
+      </c>
+      <c r="D79" s="125" t="s">
+        <v>387</v>
+      </c>
+      <c r="E79" s="126">
+        <v>5400268</v>
+      </c>
+      <c r="F79" s="126">
+        <v>1650855</v>
+      </c>
+      <c r="G79" s="127">
+        <v>34.487676999999998</v>
+      </c>
+      <c r="H79" s="126">
+        <v>33905</v>
+      </c>
+      <c r="I79" s="126">
+        <v>6687</v>
+      </c>
+      <c r="J79" s="126">
+        <v>1821835</v>
+      </c>
+      <c r="K79" s="126">
+        <v>442387</v>
+      </c>
+      <c r="L79" s="126">
+        <v>1379448</v>
+      </c>
+      <c r="M79" s="127">
+        <v>24.282495000000001</v>
+      </c>
+      <c r="N79" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="O79" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="P79" s="129" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="137" t="s">
+        <v>818</v>
+      </c>
+      <c r="B80" s="138">
+        <v>43261</v>
+      </c>
+      <c r="C80" s="76" t="s">
+        <v>819</v>
+      </c>
+      <c r="D80" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" s="130">
+        <v>5400268</v>
+      </c>
+      <c r="F80" s="130">
+        <v>1648943</v>
+      </c>
+      <c r="G80" s="131">
+        <v>34.440939</v>
+      </c>
+      <c r="H80" s="130">
+        <v>35085</v>
+      </c>
+      <c r="I80" s="130">
+        <v>6589</v>
+      </c>
+      <c r="J80" s="130">
+        <v>1818229</v>
+      </c>
+      <c r="K80" s="130">
+        <v>1325982</v>
+      </c>
+      <c r="L80" s="130">
+        <v>492247</v>
+      </c>
+      <c r="M80" s="131">
+        <v>72.927117999999993</v>
+      </c>
+      <c r="N80" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="O77" s="133" t="s">
-        <v>335</v>
-      </c>
-      <c r="P77" s="133" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A78" s="139" t="s">
-        <v>816</v>
-      </c>
-      <c r="B78" s="140">
-        <v>43163</v>
-      </c>
-      <c r="C78" s="124" t="s">
-        <v>814</v>
-      </c>
-      <c r="D78" s="125" t="s">
-        <v>387</v>
-      </c>
-      <c r="E78" s="126">
-        <v>5391413</v>
-      </c>
-      <c r="F78" s="126"/>
-      <c r="G78" s="127">
-        <v>54.8</v>
-      </c>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126">
-        <v>2931769</v>
-      </c>
-      <c r="K78" s="126">
-        <v>833630</v>
-      </c>
-      <c r="L78" s="126">
-        <v>2098139</v>
-      </c>
-      <c r="M78" s="146">
-        <v>28.4</v>
-      </c>
-      <c r="N78" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="O78" s="129" t="s">
-        <v>113</v>
-      </c>
-      <c r="P78" s="129" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="86"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-    </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="O80" s="133" t="s">
+        <v>259</v>
+      </c>
+      <c r="P80" s="133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="86"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+    </row>
+    <row r="82" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="87"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-    </row>
-    <row r="81" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-    </row>
-    <row r="82" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
@@ -7208,164 +7282,202 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
     </row>
-    <row r="83" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+    <row r="83" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="16"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="87"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+    </row>
+    <row r="84" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="87"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+    </row>
+    <row r="85" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="88"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-    </row>
-    <row r="84" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="60" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="88"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+    </row>
+    <row r="86" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="60" t="s">
         <v>125</v>
-      </c>
-      <c r="J84" s="25"/>
-      <c r="N84" s="88"/>
-    </row>
-    <row r="85" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="J85" s="25"/>
-      <c r="N85" s="88"/>
-    </row>
-    <row r="86" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
-        <v>133</v>
       </c>
       <c r="J86" s="25"/>
       <c r="N86" s="88"/>
     </row>
-    <row r="87" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
-        <v>634</v>
+    <row r="87" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="60" t="s">
+        <v>126</v>
       </c>
       <c r="J87" s="25"/>
       <c r="N87" s="88"/>
     </row>
-    <row r="88" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
-        <v>612</v>
+    <row r="88" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="J88" s="25"/>
       <c r="N88" s="88"/>
     </row>
-    <row r="89" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A89" s="145" t="s">
+    <row r="89" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="J89" s="25"/>
+      <c r="N89" s="88"/>
+    </row>
+    <row r="90" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="J90" s="25"/>
+      <c r="N90" s="88"/>
+    </row>
+    <row r="91" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="145" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A90" s="145" t="s">
+    <row r="92" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="145" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A91" s="145" t="s">
+    <row r="93" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="145" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A92" s="145" t="s">
+    <row r="94" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="145" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A93" s="145" t="s">
+    <row r="95" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="145" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="96" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
+    <row r="97" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="134" t="s">
+    <row r="99" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="134" t="s">
         <v>225</v>
       </c>
-      <c r="B97" s="135"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="69"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="51"/>
-    </row>
-    <row r="98" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="37" t="s">
-        <v>812</v>
-      </c>
-      <c r="B98" s="136"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-      <c r="N98" s="69"/>
-    </row>
-    <row r="99" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="135"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+    </row>
+    <row r="100" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="B100" s="136"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="62"/>
+      <c r="K100" s="62"/>
+      <c r="N100" s="69"/>
+    </row>
+    <row r="101" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E99" s="120"/>
-      <c r="F99" s="120"/>
-      <c r="G99" s="120"/>
-    </row>
-    <row r="100" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="F100" s="120"/>
-      <c r="G100" s="120"/>
-    </row>
-    <row r="101" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>635</v>
-      </c>
+      <c r="E101" s="120"/>
       <c r="F101" s="120"/>
       <c r="G101" s="120"/>
-      <c r="N101" s="69"/>
-    </row>
-    <row r="102" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>238</v>
+        <v>605</v>
       </c>
       <c r="F102" s="120"/>
       <c r="G102" s="120"/>
-      <c r="H102" s="120"/>
-      <c r="I102" s="120"/>
-      <c r="J102" s="120"/>
-      <c r="K102" s="120"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
+    </row>
+    <row r="103" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F103" s="120"/>
+      <c r="G103" s="120"/>
+      <c r="N103" s="69"/>
+    </row>
+    <row r="104" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="120"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="120"/>
+      <c r="I104" s="120"/>
+      <c r="J104" s="120"/>
+      <c r="K104" s="120"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="69"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -7387,28 +7499,28 @@
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:N65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="103" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="103" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="103" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="103" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="103" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="103" customWidth="1"/>
     <col min="5" max="5" width="10" style="103" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="103" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="103" customWidth="1"/>
     <col min="7" max="7" width="10" style="103" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="103" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="103" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="103" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="103" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="103" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="103" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="103" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="103" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="103" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="103"/>
+    <col min="8" max="8" width="7.28515625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="103" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="103" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="103" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="103" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="103" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="103" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="103" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="103" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>774</v>
       </c>
@@ -7419,7 +7531,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -7437,7 +7549,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
       <c r="B3" s="59"/>
       <c r="C3" s="99"/>
@@ -7455,7 +7567,7 @@
       <c r="O3" s="99"/>
       <c r="P3" s="101"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>353</v>
       </c>
@@ -7505,7 +7617,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>422</v>
       </c>
@@ -7541,7 +7653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
@@ -7559,7 +7671,7 @@
       <c r="O6" s="102"/>
       <c r="P6" s="43"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -7577,7 +7689,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="108">
         <v>459</v>
       </c>
@@ -7627,7 +7739,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="110">
         <v>460</v>
       </c>
@@ -7677,7 +7789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="108">
         <v>461</v>
       </c>
@@ -7727,7 +7839,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="16" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="110">
         <v>462</v>
       </c>
@@ -7777,7 +7889,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="108">
         <v>463</v>
       </c>
@@ -7827,7 +7939,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="110">
         <v>464</v>
       </c>
@@ -7877,7 +7989,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="108">
         <v>465.1</v>
       </c>
@@ -7927,7 +8039,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="110">
         <v>465.2</v>
       </c>
@@ -7977,7 +8089,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="108">
         <v>466</v>
       </c>
@@ -8027,7 +8139,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="110">
         <v>467</v>
       </c>
@@ -8077,7 +8189,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="108">
         <v>468</v>
       </c>
@@ -8127,7 +8239,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="110">
         <v>469</v>
       </c>
@@ -8177,7 +8289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="108">
         <v>470</v>
       </c>
@@ -8227,7 +8339,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="110">
         <v>471</v>
       </c>
@@ -8277,7 +8389,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="108">
         <v>472</v>
       </c>
@@ -8327,7 +8439,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="110">
         <v>473</v>
       </c>
@@ -8377,7 +8489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="108">
         <v>474</v>
       </c>
@@ -8427,7 +8539,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="110">
         <v>475</v>
       </c>
@@ -8477,7 +8589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="108">
         <v>476</v>
       </c>
@@ -8527,7 +8639,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="110">
         <v>477</v>
       </c>
@@ -8577,7 +8689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="108">
         <v>478</v>
       </c>
@@ -8627,7 +8739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="110">
         <v>479</v>
       </c>
@@ -8677,7 +8789,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="108">
         <v>480</v>
       </c>
@@ -8727,7 +8839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="110">
         <v>481</v>
       </c>
@@ -8777,7 +8889,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="108">
         <v>482</v>
       </c>
@@ -8827,7 +8939,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="110">
         <v>483</v>
       </c>
@@ -8877,7 +8989,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="108">
         <v>484</v>
       </c>
@@ -8927,7 +9039,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="110">
         <v>485</v>
       </c>
@@ -8977,7 +9089,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="108">
         <v>486</v>
       </c>
@@ -9027,7 +9139,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="110">
         <v>487</v>
       </c>
@@ -9077,7 +9189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="108">
         <v>488</v>
       </c>
@@ -9127,7 +9239,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="110">
         <v>489.1</v>
       </c>
@@ -9177,7 +9289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="108">
         <v>489.2</v>
       </c>
@@ -9227,7 +9339,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="110">
         <v>490</v>
       </c>
@@ -9277,7 +9389,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="108">
         <v>491</v>
       </c>
@@ -9327,7 +9439,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="110">
         <v>492</v>
       </c>
@@ -9377,7 +9489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A44" s="108">
         <v>493</v>
       </c>
@@ -9427,7 +9539,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="110">
         <v>494</v>
       </c>
@@ -9477,7 +9589,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A46" s="108">
         <v>495</v>
       </c>
@@ -9527,7 +9639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A47" s="110">
         <v>496</v>
       </c>
@@ -9577,7 +9689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="108">
         <v>497</v>
       </c>
@@ -9627,7 +9739,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="110">
         <v>498</v>
       </c>
@@ -9677,7 +9789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="108">
         <v>499</v>
       </c>
@@ -9727,7 +9839,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A51" s="110">
         <v>500</v>
       </c>
@@ -9777,7 +9889,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="108">
         <v>501</v>
       </c>
@@ -9827,7 +9939,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="110">
         <v>502</v>
       </c>
@@ -9877,7 +9989,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A54" s="108">
         <v>503</v>
       </c>
@@ -9927,7 +10039,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="110">
         <v>504</v>
       </c>
@@ -9977,7 +10089,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A56" s="108">
         <v>505</v>
       </c>
@@ -10027,7 +10139,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="110">
         <v>506</v>
       </c>
@@ -10077,7 +10189,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A58" s="108">
         <v>507</v>
       </c>
@@ -10127,7 +10239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="110">
         <v>508</v>
       </c>
@@ -10177,7 +10289,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="108">
         <v>509</v>
       </c>
@@ -10227,7 +10339,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="110">
         <v>510</v>
       </c>
@@ -10277,7 +10389,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="108">
         <v>511</v>
       </c>
@@ -10327,7 +10439,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A63" s="110">
         <v>512</v>
       </c>
@@ -10377,7 +10489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="16" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="108">
         <v>513</v>
       </c>
@@ -10427,7 +10539,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="110">
         <v>514</v>
       </c>
@@ -10477,7 +10589,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A66" s="108">
         <v>515</v>
       </c>
@@ -10527,7 +10639,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A67" s="110">
         <v>516</v>
       </c>
@@ -10577,7 +10689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="108">
         <v>517</v>
       </c>
@@ -10627,7 +10739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="110">
         <v>518</v>
       </c>
@@ -10677,7 +10789,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="108">
         <v>519</v>
       </c>
@@ -10727,7 +10839,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A71" s="110">
         <v>520</v>
       </c>
@@ -10777,7 +10889,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="108">
         <v>521</v>
       </c>
@@ -10827,7 +10939,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A73" s="110">
         <v>522</v>
       </c>
@@ -10877,7 +10989,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A74" s="108">
         <v>523</v>
       </c>
@@ -10927,7 +11039,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A75" s="110">
         <v>524</v>
       </c>
@@ -10977,7 +11089,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A76" s="108">
         <v>525</v>
       </c>
@@ -11027,7 +11139,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A77" s="110">
         <v>526</v>
       </c>
@@ -11077,7 +11189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A78" s="108">
         <v>527</v>
       </c>
@@ -11127,7 +11239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A79" s="110">
         <v>528</v>
       </c>
@@ -11177,7 +11289,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A80" s="108">
         <v>529</v>
       </c>
@@ -11227,7 +11339,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="110">
         <v>530</v>
       </c>
@@ -11277,7 +11389,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="108">
         <v>531</v>
       </c>
@@ -11327,7 +11439,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A83" s="110">
         <v>532</v>
       </c>
@@ -11377,7 +11489,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A84" s="108">
         <v>533</v>
       </c>
@@ -11427,7 +11539,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A85" s="110">
         <v>534</v>
       </c>
@@ -11477,7 +11589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A86" s="108">
         <v>535</v>
       </c>
@@ -11527,7 +11639,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A87" s="110">
         <v>536</v>
       </c>
@@ -11577,7 +11689,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="108">
         <v>537</v>
       </c>
@@ -11627,7 +11739,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="110">
         <v>538</v>
       </c>
@@ -11677,7 +11789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A90" s="108">
         <v>539</v>
       </c>
@@ -11727,7 +11839,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="16" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A91" s="110">
         <v>540</v>
       </c>
@@ -11777,7 +11889,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="108">
         <v>541</v>
       </c>
@@ -11827,7 +11939,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="16" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A93" s="110">
         <v>542</v>
       </c>
@@ -11877,7 +11989,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="108">
         <v>543</v>
       </c>
@@ -11927,7 +12039,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A95" s="110">
         <v>544</v>
       </c>
@@ -11977,7 +12089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="16" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="108">
         <v>545</v>
       </c>
@@ -12027,7 +12139,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A97" s="110">
         <v>546</v>
       </c>
@@ -12077,7 +12189,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="16" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A98" s="108">
         <v>547</v>
       </c>
@@ -12127,7 +12239,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="17"/>
@@ -12145,7 +12257,7 @@
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
     </row>
-    <row r="100" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>236</v>
       </c>
@@ -12165,7 +12277,7 @@
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
     </row>
-    <row r="101" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>128</v>
       </c>
@@ -12185,53 +12297,53 @@
       <c r="O101" s="16"/>
       <c r="P101" s="16"/>
     </row>
-    <row r="102" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J102" s="25"/>
       <c r="N102" s="88"/>
     </row>
-    <row r="103" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="s">
         <v>125</v>
       </c>
       <c r="J103" s="25"/>
       <c r="N103" s="88"/>
     </row>
-    <row r="104" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="s">
         <v>126</v>
       </c>
       <c r="J104" s="25"/>
       <c r="N104" s="88"/>
     </row>
-    <row r="105" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J105" s="25"/>
       <c r="N105" s="88"/>
     </row>
-    <row r="106" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J106" s="25"/>
       <c r="N106" s="88"/>
     </row>
-    <row r="107" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J107" s="25"/>
       <c r="N107" s="88"/>
     </row>
-    <row r="108" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="134" t="s">
         <v>772</v>
       </c>
       <c r="J108" s="25"/>
       <c r="N108" s="88"/>
     </row>
-    <row r="109" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="37" t="s">
         <v>225</v>
       </c>
@@ -12241,25 +12353,25 @@
       <c r="K109" s="62"/>
       <c r="N109" s="69"/>
     </row>
-    <row r="110" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N110" s="69"/>
     </row>
-    <row r="111" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N111" s="69"/>
     </row>
-    <row r="112" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>635</v>
       </c>
       <c r="N112" s="69"/>
     </row>
-    <row r="113" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>238</v>
       </c>
@@ -12272,7 +12384,7 @@
       <c r="I113" s="51"/>
       <c r="N113" s="69"/>
     </row>
-    <row r="114" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="D114" s="103"/>
       <c r="E114" s="3"/>
@@ -12309,28 +12421,28 @@
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:N65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="97" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="97" customWidth="1"/>
     <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="97" customWidth="1"/>
     <col min="7" max="7" width="10" style="97" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="97" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="97" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="97" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="97" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="97"/>
+    <col min="8" max="8" width="7.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="97" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="97" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="97" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>424</v>
       </c>
@@ -12341,7 +12453,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -12359,7 +12471,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
       <c r="C3" s="7"/>
       <c r="E3" s="8"/>
@@ -12374,7 +12486,7 @@
       <c r="N3" s="92"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -12424,7 +12536,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>422</v>
       </c>
@@ -12459,7 +12571,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
@@ -12477,7 +12589,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -12495,7 +12607,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>359</v>
       </c>
@@ -12545,7 +12657,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <v>360</v>
       </c>
@@ -12595,7 +12707,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>361</v>
       </c>
@@ -12645,7 +12757,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>362</v>
       </c>
@@ -12695,7 +12807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>363</v>
       </c>
@@ -12745,7 +12857,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <v>364</v>
       </c>
@@ -12795,7 +12907,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>365</v>
       </c>
@@ -12845,7 +12957,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>366</v>
       </c>
@@ -12895,7 +13007,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>367</v>
       </c>
@@ -12945,7 +13057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="72">
         <v>368</v>
       </c>
@@ -12995,7 +13107,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>369</v>
       </c>
@@ -13045,7 +13157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>370</v>
       </c>
@@ -13095,7 +13207,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>371</v>
       </c>
@@ -13145,7 +13257,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>372</v>
       </c>
@@ -13195,7 +13307,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>373</v>
       </c>
@@ -13245,7 +13357,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>374</v>
       </c>
@@ -13295,7 +13407,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>375</v>
       </c>
@@ -13345,7 +13457,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>376</v>
       </c>
@@ -13395,7 +13507,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>377</v>
       </c>
@@ -13445,7 +13557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <v>378</v>
       </c>
@@ -13495,7 +13607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>379</v>
       </c>
@@ -13545,7 +13657,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>380</v>
       </c>
@@ -13595,7 +13707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>381</v>
       </c>
@@ -13645,7 +13757,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <v>382</v>
       </c>
@@ -13695,7 +13807,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>383</v>
       </c>
@@ -13745,7 +13857,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>384</v>
       </c>
@@ -13795,7 +13907,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>385</v>
       </c>
@@ -13845,7 +13957,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <v>386</v>
       </c>
@@ -13895,7 +14007,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>387</v>
       </c>
@@ -13945,7 +14057,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>388</v>
       </c>
@@ -13995,7 +14107,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>389</v>
       </c>
@@ -14045,7 +14157,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="72">
         <v>390</v>
       </c>
@@ -14095,7 +14207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>391</v>
       </c>
@@ -14145,7 +14257,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>392</v>
       </c>
@@ -14195,7 +14307,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>393</v>
       </c>
@@ -14245,7 +14357,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="72">
         <v>394</v>
       </c>
@@ -14295,7 +14407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
         <v>395</v>
       </c>
@@ -14345,7 +14457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="72">
         <v>396</v>
       </c>
@@ -14395,7 +14507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>397</v>
       </c>
@@ -14445,7 +14557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>398</v>
       </c>
@@ -14495,7 +14607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>399</v>
       </c>
@@ -14545,7 +14657,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="72">
         <v>400</v>
       </c>
@@ -14595,7 +14707,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>401</v>
       </c>
@@ -14645,7 +14757,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>402</v>
       </c>
@@ -14695,7 +14807,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
         <v>403</v>
       </c>
@@ -14745,7 +14857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="72">
         <v>404</v>
       </c>
@@ -14795,7 +14907,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
         <v>405</v>
       </c>
@@ -14845,7 +14957,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>406</v>
       </c>
@@ -14895,7 +15007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
         <v>407</v>
       </c>
@@ -14945,7 +15057,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>408</v>
       </c>
@@ -14995,7 +15107,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>409</v>
       </c>
@@ -15045,7 +15157,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="72">
         <v>410</v>
       </c>
@@ -15095,7 +15207,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>411</v>
       </c>
@@ -15145,7 +15257,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>412</v>
       </c>
@@ -15195,7 +15307,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>413</v>
       </c>
@@ -15245,7 +15357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A63" s="72">
         <v>414</v>
       </c>
@@ -15295,7 +15407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>415</v>
       </c>
@@ -15345,7 +15457,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>416</v>
       </c>
@@ -15395,7 +15507,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>417</v>
       </c>
@@ -15445,7 +15557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="72">
         <v>418</v>
       </c>
@@ -15495,7 +15607,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>419</v>
       </c>
@@ -15545,7 +15657,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>420</v>
       </c>
@@ -15595,7 +15707,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <v>421</v>
       </c>
@@ -15645,7 +15757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="72">
         <v>422</v>
       </c>
@@ -15695,7 +15807,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
         <v>423</v>
       </c>
@@ -15745,7 +15857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="72">
         <v>424</v>
       </c>
@@ -15795,7 +15907,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <v>425</v>
       </c>
@@ -15845,7 +15957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="72">
         <v>426</v>
       </c>
@@ -15895,7 +16007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <v>427</v>
       </c>
@@ -15945,7 +16057,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="72">
         <v>428</v>
       </c>
@@ -15995,7 +16107,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>429</v>
       </c>
@@ -16045,7 +16157,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="72">
         <v>430</v>
       </c>
@@ -16095,7 +16207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <v>431</v>
       </c>
@@ -16145,7 +16257,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="72">
         <v>432</v>
       </c>
@@ -16195,7 +16307,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <v>433</v>
       </c>
@@ -16245,7 +16357,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="72">
         <v>434</v>
       </c>
@@ -16295,7 +16407,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>435</v>
       </c>
@@ -16345,7 +16457,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="72">
         <v>436</v>
       </c>
@@ -16395,7 +16507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <v>437</v>
       </c>
@@ -16445,7 +16557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A87" s="72">
         <v>438</v>
       </c>
@@ -16495,7 +16607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <v>439</v>
       </c>
@@ -16545,7 +16657,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A89" s="72">
         <v>440</v>
       </c>
@@ -16595,7 +16707,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <v>441</v>
       </c>
@@ -16645,7 +16757,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="72">
         <v>442</v>
       </c>
@@ -16695,7 +16807,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <v>443</v>
       </c>
@@ -16745,7 +16857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="72">
         <v>444</v>
       </c>
@@ -16795,7 +16907,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
         <v>445</v>
       </c>
@@ -16845,7 +16957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="72">
         <v>446</v>
       </c>
@@ -16895,7 +17007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
         <v>447</v>
       </c>
@@ -16945,7 +17057,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="72">
         <v>448</v>
       </c>
@@ -16995,7 +17107,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="70">
         <v>449</v>
       </c>
@@ -17045,7 +17157,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A99" s="72">
         <v>450</v>
       </c>
@@ -17095,7 +17207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
         <v>451</v>
       </c>
@@ -17145,7 +17257,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A101" s="72">
         <v>452</v>
       </c>
@@ -17195,7 +17307,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="70">
         <v>453</v>
       </c>
@@ -17245,7 +17357,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A103" s="72">
         <v>454</v>
       </c>
@@ -17295,7 +17407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="70">
         <v>455</v>
       </c>
@@ -17345,7 +17457,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="72">
         <v>456</v>
       </c>
@@ -17395,7 +17507,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A106" s="70">
         <v>457</v>
       </c>
@@ -17445,7 +17557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A107" s="72">
         <v>458</v>
       </c>
@@ -17495,7 +17607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="17"/>
@@ -17513,7 +17625,7 @@
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
     </row>
-    <row r="109" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>127</v>
       </c>
@@ -17532,7 +17644,7 @@
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
     </row>
-    <row r="110" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>128</v>
       </c>
@@ -17551,46 +17663,46 @@
       <c r="O110" s="16"/>
       <c r="P110" s="16"/>
     </row>
-    <row r="111" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J111" s="25"/>
       <c r="N111" s="88"/>
     </row>
-    <row r="112" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="60" t="s">
         <v>125</v>
       </c>
       <c r="J112" s="25"/>
       <c r="N112" s="88"/>
     </row>
-    <row r="113" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="60" t="s">
         <v>126</v>
       </c>
       <c r="J113" s="25"/>
       <c r="N113" s="88"/>
     </row>
-    <row r="114" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J114" s="25"/>
       <c r="N114" s="88"/>
     </row>
-    <row r="115" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J115" s="25"/>
       <c r="N115" s="88"/>
     </row>
-    <row r="116" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J116" s="25"/>
       <c r="N116" s="88"/>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
         <v>264</v>
       </c>
@@ -17599,14 +17711,14 @@
       <c r="E117" s="63"/>
       <c r="N117" s="88"/>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E118" s="64"/>
       <c r="N118" s="88"/>
     </row>
-    <row r="119" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
         <v>225</v>
       </c>
@@ -17616,19 +17728,19 @@
       <c r="K119" s="62"/>
       <c r="N119" s="69"/>
     </row>
-    <row r="120" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N120" s="69"/>
     </row>
-    <row r="121" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N121" s="69"/>
     </row>
-    <row r="122" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>635</v>
       </c>
@@ -17641,7 +17753,7 @@
       <c r="I122" s="51"/>
       <c r="N122" s="69"/>
     </row>
-    <row r="123" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
@@ -17682,28 +17794,28 @@
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:N65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="97" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="97" customWidth="1"/>
     <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="97" customWidth="1"/>
     <col min="7" max="7" width="10" style="97" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="97" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="97" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="97" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="97" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="97"/>
+    <col min="8" max="8" width="7.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="97" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="97" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="97" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>423</v>
       </c>
@@ -17714,7 +17826,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -17732,7 +17844,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
       <c r="C3" s="7"/>
       <c r="E3" s="8"/>
@@ -17747,7 +17859,7 @@
       <c r="N3" s="92"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -17797,7 +17909,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>422</v>
       </c>
@@ -17832,7 +17944,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
@@ -17850,7 +17962,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -17868,7 +17980,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>299</v>
       </c>
@@ -17918,7 +18030,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <v>300</v>
       </c>
@@ -17968,7 +18080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>301</v>
       </c>
@@ -18018,7 +18130,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>302</v>
       </c>
@@ -18068,7 +18180,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>303</v>
       </c>
@@ -18118,7 +18230,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <v>304</v>
       </c>
@@ -18168,7 +18280,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>305</v>
       </c>
@@ -18218,7 +18330,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>306</v>
       </c>
@@ -18268,7 +18380,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>307</v>
       </c>
@@ -18318,7 +18430,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="72">
         <v>308</v>
       </c>
@@ -18368,7 +18480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>309</v>
       </c>
@@ -18418,7 +18530,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>310</v>
       </c>
@@ -18468,7 +18580,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>311.10000000000002</v>
       </c>
@@ -18518,7 +18630,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>311.2</v>
       </c>
@@ -18568,7 +18680,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>312</v>
       </c>
@@ -18618,7 +18730,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>313</v>
       </c>
@@ -18668,7 +18780,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>314</v>
       </c>
@@ -18718,7 +18830,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>315</v>
       </c>
@@ -18768,7 +18880,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>316</v>
       </c>
@@ -18818,7 +18930,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <v>317</v>
       </c>
@@ -18868,7 +18980,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>318</v>
       </c>
@@ -18918,7 +19030,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>319</v>
       </c>
@@ -18968,7 +19080,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>320</v>
       </c>
@@ -19018,7 +19130,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <v>321</v>
       </c>
@@ -19068,7 +19180,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>322</v>
       </c>
@@ -19118,7 +19230,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>323</v>
       </c>
@@ -19168,7 +19280,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>324</v>
       </c>
@@ -19218,7 +19330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <v>325</v>
       </c>
@@ -19268,7 +19380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>326</v>
       </c>
@@ -19318,7 +19430,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>327</v>
       </c>
@@ -19368,7 +19480,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>328</v>
       </c>
@@ -19418,7 +19530,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="72">
         <v>329</v>
       </c>
@@ -19468,7 +19580,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>330</v>
       </c>
@@ -19518,7 +19630,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>331</v>
       </c>
@@ -19568,7 +19680,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>332</v>
       </c>
@@ -19618,7 +19730,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="72">
         <v>333</v>
       </c>
@@ -19668,7 +19780,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
         <v>334</v>
       </c>
@@ -19718,7 +19830,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="72">
         <v>335</v>
       </c>
@@ -19768,7 +19880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>336</v>
       </c>
@@ -19818,7 +19930,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>337</v>
       </c>
@@ -19868,7 +19980,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>338</v>
       </c>
@@ -19918,7 +20030,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="72">
         <v>339.1</v>
       </c>
@@ -19968,7 +20080,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>339.2</v>
       </c>
@@ -20018,7 +20130,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>340</v>
       </c>
@@ -20068,7 +20180,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
         <v>341</v>
       </c>
@@ -20118,7 +20230,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="72">
         <v>342</v>
       </c>
@@ -20168,7 +20280,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
         <v>343</v>
       </c>
@@ -20218,7 +20330,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>344</v>
       </c>
@@ -20268,7 +20380,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
         <v>345</v>
       </c>
@@ -20318,7 +20430,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>346</v>
       </c>
@@ -20368,7 +20480,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>347</v>
       </c>
@@ -20418,7 +20530,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A59" s="72">
         <v>348</v>
       </c>
@@ -20468,7 +20580,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>349</v>
       </c>
@@ -20518,7 +20630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>350</v>
       </c>
@@ -20568,7 +20680,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>351</v>
       </c>
@@ -20618,7 +20730,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="72">
         <v>352</v>
       </c>
@@ -20668,7 +20780,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>353</v>
       </c>
@@ -20718,7 +20830,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>354</v>
       </c>
@@ -20768,7 +20880,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>355</v>
       </c>
@@ -20818,7 +20930,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="72">
         <v>356</v>
       </c>
@@ -20868,7 +20980,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>357</v>
       </c>
@@ -20918,7 +21030,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>358</v>
       </c>
@@ -20968,7 +21080,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="17"/>
@@ -20986,7 +21098,7 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>127</v>
       </c>
@@ -21005,7 +21117,7 @@
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>128</v>
       </c>
@@ -21024,46 +21136,46 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J73" s="25"/>
       <c r="N73" s="88"/>
     </row>
-    <row r="74" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
         <v>125</v>
       </c>
       <c r="J74" s="25"/>
       <c r="N74" s="88"/>
     </row>
-    <row r="75" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
         <v>126</v>
       </c>
       <c r="J75" s="25"/>
       <c r="N75" s="88"/>
     </row>
-    <row r="76" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J76" s="25"/>
       <c r="N76" s="88"/>
     </row>
-    <row r="77" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J77" s="25"/>
       <c r="N77" s="88"/>
     </row>
-    <row r="78" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J78" s="25"/>
       <c r="N78" s="88"/>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>264</v>
       </c>
@@ -21072,14 +21184,14 @@
       <c r="E79" s="63"/>
       <c r="N79" s="88"/>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E80" s="64"/>
       <c r="N80" s="88"/>
     </row>
-    <row r="81" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>225</v>
       </c>
@@ -21089,25 +21201,25 @@
       <c r="K81" s="62"/>
       <c r="N81" s="69"/>
     </row>
-    <row r="82" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N82" s="69"/>
     </row>
-    <row r="83" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N83" s="69"/>
     </row>
-    <row r="84" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>635</v>
       </c>
       <c r="N84" s="69"/>
     </row>
-    <row r="85" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>238</v>
       </c>
@@ -21146,28 +21258,28 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:IV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="97" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="97" customWidth="1"/>
     <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="97" customWidth="1"/>
     <col min="7" max="7" width="10" style="97" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="97" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="97" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="97" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="97" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="97"/>
+    <col min="8" max="8" width="7.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="97" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="97" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="97" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>421</v>
       </c>
@@ -21178,7 +21290,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -21196,7 +21308,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
       <c r="C3" s="7"/>
       <c r="E3" s="8"/>
@@ -21211,7 +21323,7 @@
       <c r="N3" s="92"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -21261,7 +21373,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>422</v>
       </c>
@@ -21296,7 +21408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="27" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="47"/>
@@ -21314,7 +21426,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -21332,7 +21444,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>219</v>
       </c>
@@ -21382,7 +21494,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <v>220</v>
       </c>
@@ -21432,7 +21544,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>221</v>
       </c>
@@ -21482,7 +21594,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>222</v>
       </c>
@@ -21532,7 +21644,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>223</v>
       </c>
@@ -21582,7 +21694,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <v>224</v>
       </c>
@@ -21632,7 +21744,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>225</v>
       </c>
@@ -21682,7 +21794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>226</v>
       </c>
@@ -21732,7 +21844,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>227.1</v>
       </c>
@@ -21782,7 +21894,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="72">
         <v>227.2</v>
       </c>
@@ -21832,7 +21944,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>228</v>
       </c>
@@ -21882,7 +21994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>229</v>
       </c>
@@ -21932,7 +22044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>230</v>
       </c>
@@ -21982,7 +22094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>231</v>
       </c>
@@ -22032,7 +22144,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>232.1</v>
       </c>
@@ -22082,7 +22194,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>232.2</v>
       </c>
@@ -22132,7 +22244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>233</v>
       </c>
@@ -22182,7 +22294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>234</v>
       </c>
@@ -22232,7 +22344,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>235</v>
       </c>
@@ -22282,7 +22394,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <v>236</v>
       </c>
@@ -22332,7 +22444,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>237</v>
       </c>
@@ -22382,7 +22494,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>238</v>
       </c>
@@ -22432,7 +22544,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>239</v>
       </c>
@@ -22482,7 +22594,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <v>240</v>
       </c>
@@ -22532,7 +22644,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>241</v>
       </c>
@@ -22582,7 +22694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>242</v>
       </c>
@@ -22632,7 +22744,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>243</v>
       </c>
@@ -22682,7 +22794,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <v>244</v>
       </c>
@@ -22732,7 +22844,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>245.1</v>
       </c>
@@ -22782,7 +22894,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>245.2</v>
       </c>
@@ -22832,7 +22944,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>246</v>
       </c>
@@ -22882,7 +22994,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="72">
         <v>247</v>
       </c>
@@ -22932,7 +23044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>248</v>
       </c>
@@ -22982,7 +23094,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>249</v>
       </c>
@@ -23032,7 +23144,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>250</v>
       </c>
@@ -23082,7 +23194,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="72">
         <v>251</v>
       </c>
@@ -23132,7 +23244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
         <v>252</v>
       </c>
@@ -23182,7 +23294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="72">
         <v>253</v>
       </c>
@@ -23232,7 +23344,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>254</v>
       </c>
@@ -23282,7 +23394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>255.1</v>
       </c>
@@ -23332,7 +23444,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>255.2</v>
       </c>
@@ -23382,7 +23494,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="72">
         <v>256</v>
       </c>
@@ -23428,7 +23540,7 @@
       <c r="O49" s="123"/>
       <c r="P49" s="123"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>257</v>
       </c>
@@ -23478,7 +23590,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>258</v>
       </c>
@@ -23528,7 +23640,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
         <v>259</v>
       </c>
@@ -23578,7 +23690,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="72">
         <v>260</v>
       </c>
@@ -23628,7 +23740,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
         <v>261</v>
       </c>
@@ -23678,7 +23790,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>262</v>
       </c>
@@ -23728,7 +23840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
         <v>263</v>
       </c>
@@ -23778,7 +23890,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>264</v>
       </c>
@@ -23828,7 +23940,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>265</v>
       </c>
@@ -23878,7 +23990,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="72">
         <v>266</v>
       </c>
@@ -23928,7 +24040,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>267.10000000000002</v>
       </c>
@@ -23978,7 +24090,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>267.2</v>
       </c>
@@ -24028,7 +24140,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>268</v>
       </c>
@@ -24078,7 +24190,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A63" s="72">
         <v>269</v>
       </c>
@@ -24128,7 +24240,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>270.10000000000002</v>
       </c>
@@ -24178,7 +24290,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>270.2</v>
       </c>
@@ -24228,7 +24340,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>271</v>
       </c>
@@ -24278,7 +24390,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="72">
         <v>272</v>
       </c>
@@ -24328,7 +24440,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>273</v>
       </c>
@@ -24378,7 +24490,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>274</v>
       </c>
@@ -24428,7 +24540,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <v>275</v>
       </c>
@@ -24478,7 +24590,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A71" s="72">
         <v>276</v>
       </c>
@@ -24528,7 +24640,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
         <v>277</v>
       </c>
@@ -24578,7 +24690,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="72">
         <v>278</v>
       </c>
@@ -24628,7 +24740,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <v>279</v>
       </c>
@@ -24678,7 +24790,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="72">
         <v>280</v>
       </c>
@@ -24728,7 +24840,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <v>281</v>
       </c>
@@ -24778,7 +24890,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="72">
         <v>282</v>
       </c>
@@ -24828,7 +24940,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>283</v>
       </c>
@@ -24878,7 +24990,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="72">
         <v>284</v>
       </c>
@@ -24928,7 +25040,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <v>285</v>
       </c>
@@ -24978,7 +25090,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="72">
         <v>286</v>
       </c>
@@ -25028,7 +25140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <v>287</v>
       </c>
@@ -25078,7 +25190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="72">
         <v>288</v>
       </c>
@@ -25128,7 +25240,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>289</v>
       </c>
@@ -25178,7 +25290,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="72">
         <v>290</v>
       </c>
@@ -25228,7 +25340,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <v>291</v>
       </c>
@@ -25278,7 +25390,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="72">
         <v>292</v>
       </c>
@@ -25328,7 +25440,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <v>293</v>
       </c>
@@ -25378,7 +25490,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="72">
         <v>294</v>
       </c>
@@ -25428,7 +25540,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <v>295</v>
       </c>
@@ -25478,7 +25590,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A91" s="72">
         <v>296</v>
       </c>
@@ -25528,7 +25640,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <v>297</v>
       </c>
@@ -25578,7 +25690,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="72">
         <v>298</v>
       </c>
@@ -25628,7 +25740,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="17"/>
@@ -25646,7 +25758,7 @@
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
     </row>
-    <row r="95" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>127</v>
       </c>
@@ -25665,7 +25777,7 @@
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
     </row>
-    <row r="96" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>128</v>
       </c>
@@ -25684,46 +25796,46 @@
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
     </row>
-    <row r="97" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J97" s="25"/>
       <c r="N97" s="88"/>
     </row>
-    <row r="98" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
         <v>125</v>
       </c>
       <c r="J98" s="25"/>
       <c r="N98" s="88"/>
     </row>
-    <row r="99" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="60" t="s">
         <v>126</v>
       </c>
       <c r="J99" s="25"/>
       <c r="N99" s="88"/>
     </row>
-    <row r="100" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J100" s="25"/>
       <c r="N100" s="88"/>
     </row>
-    <row r="101" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J101" s="25"/>
       <c r="N101" s="88"/>
     </row>
-    <row r="102" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J102" s="25"/>
       <c r="N102" s="88"/>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37" t="s">
         <v>264</v>
       </c>
@@ -25732,14 +25844,14 @@
       <c r="E103" s="63"/>
       <c r="N103" s="88"/>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E104" s="64"/>
       <c r="N104" s="88"/>
     </row>
-    <row r="105" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>225</v>
       </c>
@@ -25749,25 +25861,25 @@
       <c r="K105" s="62"/>
       <c r="N105" s="69"/>
     </row>
-    <row r="106" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N106" s="69"/>
     </row>
-    <row r="107" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N107" s="69"/>
     </row>
-    <row r="108" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>635</v>
       </c>
       <c r="N108" s="69"/>
     </row>
-    <row r="109" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>238</v>
       </c>
@@ -25804,28 +25916,28 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:IV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="97" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="97" customWidth="1"/>
     <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="97" customWidth="1"/>
     <col min="7" max="7" width="10" style="97" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="97" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="97" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="97" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="97" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="97"/>
+    <col min="8" max="8" width="7.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="97" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="97" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="97" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>51</v>
       </c>
@@ -25847,7 +25959,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -25865,7 +25977,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="59"/>
       <c r="C3" s="16"/>
@@ -25883,7 +25995,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -25933,7 +26045,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>422</v>
       </c>
@@ -25968,7 +26080,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="114"/>
@@ -25986,7 +26098,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -26004,7 +26116,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>150</v>
       </c>
@@ -26054,7 +26166,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <v>151</v>
       </c>
@@ -26104,7 +26216,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>152</v>
       </c>
@@ -26154,7 +26266,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>153</v>
       </c>
@@ -26204,7 +26316,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>154</v>
       </c>
@@ -26254,7 +26366,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <v>155</v>
       </c>
@@ -26304,7 +26416,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>156.1</v>
       </c>
@@ -26354,7 +26466,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>156.19999999999999</v>
       </c>
@@ -26404,7 +26516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>157</v>
       </c>
@@ -26454,7 +26566,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72">
         <v>158</v>
       </c>
@@ -26504,7 +26616,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>159</v>
       </c>
@@ -26554,7 +26666,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>160</v>
       </c>
@@ -26604,7 +26716,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>161</v>
       </c>
@@ -26654,7 +26766,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>162</v>
       </c>
@@ -26704,7 +26816,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>163</v>
       </c>
@@ -26754,7 +26866,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>164</v>
       </c>
@@ -26804,7 +26916,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>165</v>
       </c>
@@ -26854,7 +26966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>166</v>
       </c>
@@ -26904,7 +27016,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>167</v>
       </c>
@@ -26954,7 +27066,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <v>168</v>
       </c>
@@ -27004,7 +27116,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>169</v>
       </c>
@@ -27054,7 +27166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>170</v>
       </c>
@@ -27104,7 +27216,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>171</v>
       </c>
@@ -27154,7 +27266,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <v>172</v>
       </c>
@@ -27204,7 +27316,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>173</v>
       </c>
@@ -27254,7 +27366,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>174.1</v>
       </c>
@@ -27304,7 +27416,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>174.2</v>
       </c>
@@ -27354,7 +27466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <v>175</v>
       </c>
@@ -27404,7 +27516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>176</v>
       </c>
@@ -27454,7 +27566,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>177</v>
       </c>
@@ -27504,7 +27616,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>178</v>
       </c>
@@ -27554,7 +27666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="72">
         <v>179</v>
       </c>
@@ -27604,7 +27716,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>180</v>
       </c>
@@ -27654,7 +27766,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>181</v>
       </c>
@@ -27704,7 +27816,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>182</v>
       </c>
@@ -27754,7 +27866,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="72">
         <v>183</v>
       </c>
@@ -27804,7 +27916,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
         <v>184</v>
       </c>
@@ -27854,7 +27966,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="72">
         <v>185</v>
       </c>
@@ -27904,7 +28016,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>186</v>
       </c>
@@ -27954,7 +28066,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>187</v>
       </c>
@@ -28004,7 +28116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>188</v>
       </c>
@@ -28054,7 +28166,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="72">
         <v>189</v>
       </c>
@@ -28104,7 +28216,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>190</v>
       </c>
@@ -28154,7 +28266,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>191</v>
       </c>
@@ -28204,7 +28316,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
         <v>192</v>
       </c>
@@ -28254,7 +28366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="72">
         <v>193</v>
       </c>
@@ -28304,7 +28416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
         <v>194</v>
       </c>
@@ -28354,7 +28466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>195</v>
       </c>
@@ -28404,7 +28516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
         <v>196</v>
       </c>
@@ -28454,7 +28566,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>197</v>
       </c>
@@ -28504,7 +28616,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>198</v>
       </c>
@@ -28554,7 +28666,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="72">
         <v>199</v>
       </c>
@@ -28604,7 +28716,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>200</v>
       </c>
@@ -28654,7 +28766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>201</v>
       </c>
@@ -28704,7 +28816,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>202</v>
       </c>
@@ -28754,7 +28866,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="72">
         <v>203</v>
       </c>
@@ -28804,7 +28916,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>204</v>
       </c>
@@ -28854,7 +28966,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>205</v>
       </c>
@@ -28904,7 +29016,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>206</v>
       </c>
@@ -28954,7 +29066,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A67" s="72">
         <v>207</v>
       </c>
@@ -29004,7 +29116,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>208</v>
       </c>
@@ -29054,7 +29166,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>209</v>
       </c>
@@ -29104,7 +29216,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <v>210</v>
       </c>
@@ -29154,7 +29266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="72">
         <v>211</v>
       </c>
@@ -29204,7 +29316,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
         <v>212</v>
       </c>
@@ -29254,7 +29366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="72">
         <v>213</v>
       </c>
@@ -29304,7 +29416,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <v>214</v>
       </c>
@@ -29354,7 +29466,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="72">
         <v>215</v>
       </c>
@@ -29404,7 +29516,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <v>216</v>
       </c>
@@ -29454,7 +29566,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="72">
         <v>217</v>
       </c>
@@ -29504,7 +29616,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>218</v>
       </c>
@@ -29554,7 +29666,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="115" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="115" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="17"/>
@@ -29572,7 +29684,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>127</v>
       </c>
@@ -29591,7 +29703,7 @@
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
     </row>
-    <row r="81" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>128</v>
       </c>
@@ -29610,46 +29722,46 @@
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
     </row>
-    <row r="82" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J82" s="25"/>
       <c r="N82" s="88"/>
     </row>
-    <row r="83" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
         <v>125</v>
       </c>
       <c r="J83" s="25"/>
       <c r="N83" s="88"/>
     </row>
-    <row r="84" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
         <v>126</v>
       </c>
       <c r="J84" s="25"/>
       <c r="N84" s="88"/>
     </row>
-    <row r="85" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J85" s="25"/>
       <c r="N85" s="88"/>
     </row>
-    <row r="86" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J86" s="25"/>
       <c r="N86" s="88"/>
     </row>
-    <row r="87" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J87" s="25"/>
       <c r="N87" s="88"/>
     </row>
-    <row r="88" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>264</v>
       </c>
@@ -29658,14 +29770,14 @@
       <c r="E88" s="63"/>
       <c r="N88" s="88"/>
     </row>
-    <row r="89" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E89" s="64"/>
       <c r="N89" s="88"/>
     </row>
-    <row r="90" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>225</v>
       </c>
@@ -29675,25 +29787,25 @@
       <c r="K90" s="62"/>
       <c r="N90" s="69"/>
     </row>
-    <row r="91" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N91" s="69"/>
     </row>
-    <row r="92" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N92" s="69"/>
     </row>
-    <row r="93" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>635</v>
       </c>
       <c r="N93" s="69"/>
     </row>
-    <row r="94" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>238</v>
       </c>
@@ -29723,28 +29835,28 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="97" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="97" customWidth="1"/>
     <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="97" customWidth="1"/>
     <col min="7" max="7" width="10" style="97" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="97" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="97" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="97" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="97" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="97"/>
+    <col min="8" max="8" width="7.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="97" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="97" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="97" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>50</v>
       </c>
@@ -29766,7 +29878,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -29784,7 +29896,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="59"/>
       <c r="C3" s="16"/>
@@ -29802,7 +29914,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -29852,7 +29964,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>422</v>
       </c>
@@ -29887,7 +29999,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="114"/>
@@ -29905,7 +30017,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -29923,7 +30035,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>56</v>
       </c>
@@ -29973,7 +30085,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="72">
         <v>57</v>
       </c>
@@ -30023,7 +30135,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>58</v>
       </c>
@@ -30073,7 +30185,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>59</v>
       </c>
@@ -30123,7 +30235,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>60</v>
       </c>
@@ -30173,7 +30285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="72">
         <v>61</v>
       </c>
@@ -30223,7 +30335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>62</v>
       </c>
@@ -30273,7 +30385,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>63</v>
       </c>
@@ -30323,7 +30435,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>64</v>
       </c>
@@ -30373,7 +30485,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="72">
         <v>65</v>
       </c>
@@ -30423,7 +30535,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>66</v>
       </c>
@@ -30473,7 +30585,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>67</v>
       </c>
@@ -30523,7 +30635,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>68</v>
       </c>
@@ -30573,7 +30685,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>69</v>
       </c>
@@ -30623,7 +30735,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>70</v>
       </c>
@@ -30673,7 +30785,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>71</v>
       </c>
@@ -30723,7 +30835,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>72</v>
       </c>
@@ -30773,7 +30885,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>73</v>
       </c>
@@ -30823,7 +30935,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>74</v>
       </c>
@@ -30873,7 +30985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <v>75</v>
       </c>
@@ -30923,7 +31035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>76</v>
       </c>
@@ -30973,7 +31085,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>77</v>
       </c>
@@ -31023,7 +31135,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>78</v>
       </c>
@@ -31073,7 +31185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <v>79</v>
       </c>
@@ -31123,7 +31235,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>80</v>
       </c>
@@ -31173,7 +31285,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>81</v>
       </c>
@@ -31223,7 +31335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>82.1</v>
       </c>
@@ -31273,7 +31385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="72">
         <v>82.2</v>
       </c>
@@ -31323,7 +31435,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>83</v>
       </c>
@@ -31373,7 +31485,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>84</v>
       </c>
@@ -31423,7 +31535,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>85</v>
       </c>
@@ -31473,7 +31585,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="72">
         <v>86</v>
       </c>
@@ -31523,7 +31635,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>87</v>
       </c>
@@ -31573,7 +31685,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>88</v>
       </c>
@@ -31623,7 +31735,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>89</v>
       </c>
@@ -31673,7 +31785,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="72">
         <v>90</v>
       </c>
@@ -31723,7 +31835,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
         <v>91</v>
       </c>
@@ -31773,7 +31885,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="72">
         <v>92</v>
       </c>
@@ -31823,7 +31935,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>93</v>
       </c>
@@ -31873,7 +31985,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>94</v>
       </c>
@@ -31923,7 +32035,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="61.2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>95</v>
       </c>
@@ -31973,7 +32085,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="72">
         <v>96</v>
       </c>
@@ -32023,7 +32135,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>97</v>
       </c>
@@ -32073,7 +32185,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>98</v>
       </c>
@@ -32123,7 +32235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="70">
         <v>99</v>
       </c>
@@ -32173,7 +32285,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="72">
         <v>100</v>
       </c>
@@ -32223,7 +32335,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
         <v>101</v>
       </c>
@@ -32273,7 +32385,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>102</v>
       </c>
@@ -32323,7 +32435,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
         <v>103</v>
       </c>
@@ -32373,7 +32485,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>104</v>
       </c>
@@ -32423,7 +32535,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>105</v>
       </c>
@@ -32473,7 +32585,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="72">
         <v>106</v>
       </c>
@@ -32523,7 +32635,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>107.1</v>
       </c>
@@ -32573,7 +32685,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>107.2</v>
       </c>
@@ -32623,7 +32735,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>108</v>
       </c>
@@ -32673,7 +32785,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="72">
         <v>109</v>
       </c>
@@ -32723,7 +32835,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>110</v>
       </c>
@@ -32773,7 +32885,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>111</v>
       </c>
@@ -32823,7 +32935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>112</v>
       </c>
@@ -32873,7 +32985,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="72">
         <v>113</v>
       </c>
@@ -32923,7 +33035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>114</v>
       </c>
@@ -32973,7 +33085,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>115</v>
       </c>
@@ -33023,7 +33135,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <v>116</v>
       </c>
@@ -33073,7 +33185,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="72">
         <v>117</v>
       </c>
@@ -33123,7 +33235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
         <v>118</v>
       </c>
@@ -33173,7 +33285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="72">
         <v>119</v>
       </c>
@@ -33223,7 +33335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <v>120</v>
       </c>
@@ -33273,7 +33385,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="72">
         <v>121</v>
       </c>
@@ -33323,7 +33435,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <v>122</v>
       </c>
@@ -33373,7 +33485,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="72">
         <v>123</v>
       </c>
@@ -33423,7 +33535,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>124</v>
       </c>
@@ -33473,7 +33585,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="72">
         <v>125</v>
       </c>
@@ -33523,7 +33635,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <v>126.1</v>
       </c>
@@ -33573,7 +33685,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="72">
         <v>126.2</v>
       </c>
@@ -33623,7 +33735,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <v>127</v>
       </c>
@@ -33673,7 +33785,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="72">
         <v>128</v>
       </c>
@@ -33723,7 +33835,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>129</v>
       </c>
@@ -33773,7 +33885,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="72">
         <v>130</v>
       </c>
@@ -33823,7 +33935,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <v>131</v>
       </c>
@@ -33873,7 +33985,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A87" s="72">
         <v>132</v>
       </c>
@@ -33923,7 +34035,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <v>133</v>
       </c>
@@ -33973,7 +34085,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="72">
         <v>134</v>
       </c>
@@ -34023,7 +34135,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <v>135</v>
       </c>
@@ -34073,7 +34185,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="72">
         <v>136</v>
       </c>
@@ -34123,7 +34235,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <v>137</v>
       </c>
@@ -34173,7 +34285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A93" s="72">
         <v>138</v>
       </c>
@@ -34223,7 +34335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
         <v>139</v>
       </c>
@@ -34273,7 +34385,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A95" s="72">
         <v>140</v>
       </c>
@@ -34323,7 +34435,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
         <v>141</v>
       </c>
@@ -34373,7 +34485,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="72">
         <v>142</v>
       </c>
@@ -34423,7 +34535,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A98" s="70">
         <v>143</v>
       </c>
@@ -34473,7 +34585,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="72">
         <v>144</v>
       </c>
@@ -34523,7 +34635,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
         <v>145</v>
       </c>
@@ -34573,7 +34685,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="72">
         <v>146</v>
       </c>
@@ -34623,7 +34735,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="70">
         <v>147</v>
       </c>
@@ -34673,7 +34785,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="72">
         <v>148</v>
       </c>
@@ -34723,7 +34835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="70">
         <v>149</v>
       </c>
@@ -34773,7 +34885,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="115" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="115" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="17"/>
@@ -34791,7 +34903,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
     </row>
-    <row r="106" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>127</v>
       </c>
@@ -34810,7 +34922,7 @@
       <c r="O106" s="16"/>
       <c r="P106" s="16"/>
     </row>
-    <row r="107" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>128</v>
       </c>
@@ -34829,46 +34941,46 @@
       <c r="O107" s="16"/>
       <c r="P107" s="16"/>
     </row>
-    <row r="108" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="60" t="s">
         <v>124</v>
       </c>
       <c r="J108" s="25"/>
       <c r="N108" s="88"/>
     </row>
-    <row r="109" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="60" t="s">
         <v>125</v>
       </c>
       <c r="J109" s="25"/>
       <c r="N109" s="88"/>
     </row>
-    <row r="110" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="60" t="s">
         <v>126</v>
       </c>
       <c r="J110" s="25"/>
       <c r="N110" s="88"/>
     </row>
-    <row r="111" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
         <v>179</v>
       </c>
       <c r="J111" s="25"/>
       <c r="N111" s="88"/>
     </row>
-    <row r="112" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J112" s="25"/>
       <c r="N112" s="88"/>
     </row>
-    <row r="113" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J113" s="25"/>
       <c r="N113" s="88"/>
     </row>
-    <row r="114" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
         <v>264</v>
       </c>
@@ -34877,14 +34989,14 @@
       <c r="E114" s="63"/>
       <c r="N114" s="88"/>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E115" s="64"/>
       <c r="N115" s="88"/>
     </row>
-    <row r="116" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
         <v>225</v>
       </c>
@@ -34894,25 +35006,25 @@
       <c r="K116" s="62"/>
       <c r="N116" s="69"/>
     </row>
-    <row r="117" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N117" s="69"/>
     </row>
-    <row r="118" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N118" s="69"/>
     </row>
-    <row r="119" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>635</v>
       </c>
       <c r="N119" s="69"/>
     </row>
-    <row r="120" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -34942,30 +35054,30 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="97" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="97" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="97" customWidth="1"/>
     <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="97" customWidth="1"/>
     <col min="7" max="7" width="10" style="97" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="97" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="97" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="97" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="97" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="97" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="97" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="97" customWidth="1"/>
-    <col min="17" max="17" width="6.125" style="97" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" style="97" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.375" style="97"/>
+    <col min="8" max="8" width="7.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="97" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="97" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="97" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="97" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="97" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
@@ -34987,7 +35099,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -35005,7 +35117,7 @@
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
     </row>
-    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="59"/>
       <c r="C3" s="16"/>
@@ -35023,7 +35135,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>353</v>
       </c>
@@ -35073,7 +35185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
@@ -35108,7 +35220,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="45"/>
       <c r="C6" s="114"/>
@@ -35126,7 +35238,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -35144,7 +35256,7 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>1</v>
       </c>
@@ -35184,7 +35296,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
         <v>2</v>
       </c>
@@ -35224,7 +35336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>3</v>
       </c>
@@ -35264,7 +35376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
         <v>4</v>
       </c>
@@ -35304,7 +35416,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>5</v>
       </c>
@@ -35344,7 +35456,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <v>6</v>
       </c>
@@ -35384,7 +35496,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="65">
         <v>7</v>
       </c>
@@ -35424,7 +35536,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
         <v>8</v>
       </c>
@@ -35464,7 +35576,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>9</v>
       </c>
@@ -35504,7 +35616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
         <v>10</v>
       </c>
@@ -35544,7 +35656,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>11</v>
       </c>
@@ -35584,7 +35696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
         <v>12</v>
       </c>
@@ -35624,7 +35736,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>13</v>
       </c>
@@ -35664,7 +35776,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
         <v>14</v>
       </c>
@@ -35704,7 +35816,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>15</v>
       </c>
@@ -35744,7 +35856,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
         <v>16</v>
       </c>
@@ -35784,7 +35896,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>17</v>
       </c>
@@ -35824,7 +35936,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
         <v>18</v>
       </c>
@@ -35864,7 +35976,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>19</v>
       </c>
@@ -35904,7 +36016,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>20</v>
       </c>
@@ -35946,7 +36058,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>21</v>
       </c>
@@ -35988,7 +36100,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
         <v>22</v>
       </c>
@@ -36032,7 +36144,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>23</v>
       </c>
@@ -36074,7 +36186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
         <v>24</v>
       </c>
@@ -36116,7 +36228,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
         <v>25</v>
       </c>
@@ -36160,7 +36272,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
         <v>26</v>
       </c>
@@ -36208,7 +36320,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="65">
         <v>27</v>
       </c>
@@ -36256,7 +36368,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
         <v>28</v>
       </c>
@@ -36304,7 +36416,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>29</v>
       </c>
@@ -36352,7 +36464,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
         <v>30</v>
       </c>
@@ -36398,7 +36510,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>31</v>
       </c>
@@ -36444,7 +36556,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="67">
         <v>32</v>
       </c>
@@ -36494,7 +36606,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="65">
         <v>33</v>
       </c>
@@ -36544,7 +36656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="115" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="115" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="67">
         <v>34</v>
       </c>
@@ -36594,7 +36706,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>35</v>
       </c>
@@ -36644,7 +36756,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="67">
         <v>36</v>
       </c>
@@ -36694,7 +36806,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>37</v>
       </c>
@@ -36744,7 +36856,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
         <v>38</v>
       </c>
@@ -36794,7 +36906,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>39</v>
       </c>
@@ -36844,7 +36956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="67">
         <v>40</v>
       </c>
@@ -36894,7 +37006,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="115" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="115" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>41</v>
       </c>
@@ -36944,7 +37056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="115" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="67">
         <v>42</v>
       </c>
@@ -36994,7 +37106,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>43</v>
       </c>
@@ -37044,7 +37156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="67">
         <v>44</v>
       </c>
@@ -37094,7 +37206,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="115" customFormat="1" ht="61.2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="115" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>45</v>
       </c>
@@ -37144,7 +37256,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="115" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="115" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="67">
         <v>46</v>
       </c>
@@ -37194,7 +37306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
         <v>47</v>
       </c>
@@ -37244,7 +37356,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="67">
         <v>48</v>
       </c>
@@ -37294,7 +37406,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="65">
         <v>49</v>
       </c>
@@ -37344,7 +37456,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="67">
         <v>50</v>
       </c>
@@ -37394,7 +37506,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="65">
         <v>51</v>
       </c>
@@ -37444,7 +37556,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="115" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="115" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="67">
         <v>52</v>
       </c>
@@ -37494,7 +37606,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="115" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="115" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="65">
         <v>53</v>
       </c>
@@ -37544,7 +37656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="67">
         <v>54</v>
       </c>
@@ -37594,7 +37706,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="115" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="115" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="65">
         <v>55</v>
       </c>
@@ -37644,7 +37756,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="115" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="115" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="17"/>
@@ -37662,7 +37774,7 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>127</v>
       </c>
@@ -37682,7 +37794,7 @@
       <c r="P64" s="16"/>
       <c r="S64" s="21"/>
     </row>
-    <row r="65" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>128</v>
       </c>
@@ -37702,7 +37814,7 @@
       <c r="P65" s="16"/>
       <c r="S65" s="21"/>
     </row>
-    <row r="66" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="s">
         <v>124</v>
       </c>
@@ -37710,7 +37822,7 @@
       <c r="N66" s="88"/>
       <c r="S66" s="26"/>
     </row>
-    <row r="67" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="s">
         <v>125</v>
       </c>
@@ -37718,7 +37830,7 @@
       <c r="N67" s="88"/>
       <c r="S67" s="26"/>
     </row>
-    <row r="68" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
         <v>126</v>
       </c>
@@ -37726,7 +37838,7 @@
       <c r="N68" s="88"/>
       <c r="S68" s="26"/>
     </row>
-    <row r="69" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>179</v>
       </c>
@@ -37734,14 +37846,14 @@
       <c r="N69" s="88"/>
       <c r="S69" s="26"/>
     </row>
-    <row r="70" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="24" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>634</v>
       </c>
       <c r="J70" s="25"/>
       <c r="N70" s="88"/>
     </row>
-    <row r="71" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="116" t="s">
         <v>55</v>
       </c>
@@ -37761,14 +37873,14 @@
       <c r="O71" s="24"/>
       <c r="P71" s="24"/>
     </row>
-    <row r="72" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="E72" s="63"/>
       <c r="N72" s="88"/>
     </row>
-    <row r="73" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
         <v>264</v>
       </c>
@@ -37777,14 +37889,14 @@
       <c r="E73" s="63"/>
       <c r="N73" s="88"/>
     </row>
-    <row r="74" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>237</v>
       </c>
       <c r="E74" s="64"/>
       <c r="N74" s="88"/>
     </row>
-    <row r="75" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
         <v>225</v>
       </c>
@@ -37794,25 +37906,25 @@
       <c r="K75" s="62"/>
       <c r="N75" s="69"/>
     </row>
-    <row r="76" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N76" s="69"/>
     </row>
-    <row r="77" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>605</v>
       </c>
       <c r="N77" s="69"/>
     </row>
-    <row r="78" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="51" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>635</v>
       </c>
       <c r="N78" s="69"/>
     </row>
-    <row r="79" spans="1:19" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="16" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
